--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ahsg-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ahsg-Insr.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N2">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O2">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P2">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q2">
-        <v>4.346992541681779</v>
+        <v>4.097009028945111</v>
       </c>
       <c r="R2">
-        <v>39.12293287513601</v>
+        <v>36.873081260506</v>
       </c>
       <c r="S2">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="T2">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q3">
         <v>1.351445364863222</v>
@@ -638,10 +638,10 @@
         <v>12.163008283769</v>
       </c>
       <c r="S3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="T3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N4">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O4">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P4">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q4">
-        <v>1.090043403028222</v>
+        <v>2.132657325078</v>
       </c>
       <c r="R4">
-        <v>9.810390627254</v>
+        <v>19.193915925702</v>
       </c>
       <c r="S4">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="T4">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N5">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O5">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P5">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q5">
-        <v>0.6302788298494445</v>
+        <v>0.6376822144064445</v>
       </c>
       <c r="R5">
-        <v>5.672509468645</v>
+        <v>5.739139929658</v>
       </c>
       <c r="S5">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="T5">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N6">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q6">
-        <v>1.442821892011778</v>
+        <v>1.846255637118445</v>
       </c>
       <c r="R6">
-        <v>12.985397028106</v>
+        <v>16.616300734066</v>
       </c>
       <c r="S6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="T6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
     </row>
   </sheetData>
